--- a/OpenCart-RTM.xlsx
+++ b/OpenCart-RTM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\Manual_Testing_Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Project Name</t>
   </si>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>Validate the working of Login functionality</t>
-  </si>
-  <si>
-    <t>FRS</t>
   </si>
   <si>
     <t>DD-MM-YYYY</t>
@@ -137,6 +134,12 @@
   </si>
   <si>
     <t>Azar Tamboli</t>
+  </si>
+  <si>
+    <t>FRS and Explored OpenCart WebApplication</t>
+  </si>
+  <si>
+    <t>This is how I prepared my RTM to validate,to map Requirments to Test Scenarios and Test Scenarios to Testcases. (So rest of the mapping format is similar that’s why I not added all the data in RTM)</t>
   </si>
 </sst>
 </file>
@@ -297,7 +300,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -337,6 +340,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -619,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -634,10 +646,10 @@
     <col min="5" max="16384" width="31.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -646,7 +658,7 @@
       </c>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -655,45 +667,45 @@
       </c>
       <c r="C3" s="5"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="7"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="15"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="7"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>4</v>
@@ -702,10 +714,10 @@
         <v>5</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="357" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="357" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>1.1000000000000001</v>
       </c>
@@ -716,10 +728,10 @@
         <v>12</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="306" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="306" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>1.2</v>
       </c>
@@ -730,10 +742,24 @@
         <v>13</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>19</v>
-      </c>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A14:F14"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/OpenCart-RTM.xlsx
+++ b/OpenCart-RTM.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>Project Name</t>
   </si>
@@ -56,9 +56,6 @@
     <t>TS_002</t>
   </si>
   <si>
-    <t>OpenCart (Frontend)</t>
-  </si>
-  <si>
     <t>OpenCart</t>
   </si>
   <si>
@@ -77,7 +74,16 @@
     <t xml:space="preserve"> Requirement ID</t>
   </si>
   <si>
-    <t xml:space="preserve">TC_RF_001
+    <t>Azar Tamboli</t>
+  </si>
+  <si>
+    <t>FRS and Explored OpenCart WebApplication</t>
+  </si>
+  <si>
+    <t>This is how I prepared my RTM to validate,to map Requirments to Test Scenarios and Test Scenarios to Testcases. (So rest of the mapping format is similar that’s why I not added all the data in RTM)</t>
+  </si>
+  <si>
+    <t>TC_RF_001
 TC_RF_002
 TC_RF_003
 TC_RF_004
@@ -102,12 +108,10 @@
 TC_RF_023
 TC_RF_024
 TC_RF_025
-TC_RF_026
-TC_RF_027
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_LF_001
+TC_RF_026</t>
+  </si>
+  <si>
+    <t>TC_LF_001
 TC_LF_002
 TC_LF_003
 TC_LF_004
@@ -128,25 +132,14 @@
 TC_LF_019
 TC_LF_020
 TC_LF_021
-TC_LF_022
-TC_LF_023
-</t>
-  </si>
-  <si>
-    <t>Azar Tamboli</t>
-  </si>
-  <si>
-    <t>FRS and Explored OpenCart WebApplication</t>
-  </si>
-  <si>
-    <t>This is how I prepared my RTM to validate,to map Requirments to Test Scenarios and Test Scenarios to Testcases. (So rest of the mapping format is similar that’s why I not added all the data in RTM)</t>
+TC_LF_022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,6 +184,17 @@
       <b/>
       <sz val="10"/>
       <color theme="0"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
       <name val="Verdana"/>
       <family val="2"/>
     </font>
@@ -300,7 +304,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -311,9 +315,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -349,6 +350,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -634,7 +641,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -653,107 +660,107 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="5"/>
+      <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="5"/>
+      <c r="B3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="15"/>
+      <c r="B4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="14"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="7"/>
+      <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="6"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="7"/>
+      <c r="B6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="6"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="6"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="7"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="357" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
+    </row>
+    <row r="11" spans="1:6" ht="331.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="280.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="306" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
-        <v>1.2</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/OpenCart-RTM.xlsx
+++ b/OpenCart-RTM.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Project Name</t>
   </si>
@@ -63,9 +63,6 @@
   </si>
   <si>
     <t>Validate the working of Login functionality</t>
-  </si>
-  <si>
-    <t>DD-MM-YYYY</t>
   </si>
   <si>
     <t>Tes Case ID'S</t>
@@ -304,7 +301,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -342,6 +339,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -350,12 +356,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -641,7 +641,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -660,7 +660,7 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="14" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="4"/>
@@ -669,7 +669,7 @@
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="13" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="4"/>
@@ -678,17 +678,17 @@
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="14"/>
+      <c r="B4" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="17"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="6"/>
     </row>
@@ -696,8 +696,8 @@
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>13</v>
+      <c r="B6" s="15">
+        <v>45135</v>
       </c>
       <c r="C6" s="6"/>
     </row>
@@ -705,14 +705,12 @@
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="B7" s="5"/>
       <c r="C7" s="6"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>4</v>
@@ -721,7 +719,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="331.5" x14ac:dyDescent="0.25">
@@ -735,7 +733,7 @@
         <v>11</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="280.5" x14ac:dyDescent="0.25">
@@ -749,18 +747,18 @@
         <v>12</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
+      <c r="A14" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/OpenCart-RTM.xlsx
+++ b/OpenCart-RTM.xlsx
@@ -74,9 +74,6 @@
     <t>Azar Tamboli</t>
   </si>
   <si>
-    <t>FRS and Explored OpenCart WebApplication</t>
-  </si>
-  <si>
     <t>This is how I prepared my RTM to validate,to map Requirments to Test Scenarios and Test Scenarios to Testcases. (So rest of the mapping format is similar that’s why I not added all the data in RTM)</t>
   </si>
   <si>
@@ -130,6 +127,9 @@
 TC_LF_020
 TC_LF_021
 TC_LF_022</t>
+  </si>
+  <si>
+    <t>Test Scenario and Testcase Document</t>
   </si>
 </sst>
 </file>
@@ -641,7 +641,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B4" sqref="B4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -679,7 +679,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C4" s="17"/>
     </row>
@@ -733,7 +733,7 @@
         <v>11</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="280.5" x14ac:dyDescent="0.25">
@@ -747,12 +747,12 @@
         <v>12</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
